--- a/Supplementary_files/Supplementary_Table_03.xlsx
+++ b/Supplementary_files/Supplementary_Table_03.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iamakhilverma/Desktop/SARS_CoV_2_region_conservation/Supplementary_files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0453FD84-9DB9-E04B-B730-042A13ED6038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Conserved stretches &lt; 100 NTs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,7 +28,7 @@
     <t>Conserved stretch length</t>
   </si>
   <si>
-    <t>Name of the gene</t>
+    <t>Gene</t>
   </si>
   <si>
     <t>Conserved stretch 13</t>
@@ -370,26 +364,26 @@
     <t>N</t>
   </si>
   <si>
-    <t>M, ORF6</t>
+    <t>ORF6, M</t>
   </si>
   <si>
     <t>ORF3a, S</t>
   </si>
   <si>
-    <t>S, ORF1ab</t>
+    <t>ORF1ab, S</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>5'-UTR, ORF1ab</t>
+    <t>ORF1ab, 5'-UTR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,14 +446,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -506,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,27 +524,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,24 +558,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,21 +733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -831,7 +774,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -848,7 +791,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -865,7 +808,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -882,7 +825,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -899,7 +842,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -916,7 +859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -933,7 +876,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -950,7 +893,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -967,7 +910,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -984,7 +927,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1001,7 +944,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +961,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +978,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1069,7 +1012,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1086,7 +1029,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1046,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1154,7 +1097,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1171,7 +1114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1188,7 +1131,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1222,7 +1165,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1182,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1256,7 +1199,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1273,7 +1216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +1233,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1307,7 +1250,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1324,7 +1267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1284,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1358,7 +1301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1375,7 +1318,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1392,7 +1335,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1409,7 +1352,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1426,7 +1369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1443,7 +1386,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1460,7 +1403,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1477,7 +1420,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1494,7 +1437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1511,7 +1454,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1528,7 +1471,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1545,7 +1488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1562,7 +1505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1596,7 +1539,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1613,7 +1556,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1630,7 +1573,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1647,7 +1590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1664,7 +1607,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1681,7 +1624,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1698,7 +1641,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1715,7 +1658,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1749,7 +1692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1766,7 +1709,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1783,7 +1726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1800,7 +1743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1817,7 +1760,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1834,7 +1777,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1851,7 +1794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1811,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1885,7 +1828,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1902,7 +1845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1919,7 +1862,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1936,7 +1879,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1953,7 +1896,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1970,7 +1913,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -1987,7 +1930,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2004,7 +1947,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2021,7 +1964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2038,7 +1981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2055,7 +1998,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2072,7 +2015,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2089,7 +2032,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2106,7 +2049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2123,7 +2066,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2140,7 +2083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2157,7 +2100,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2174,7 +2117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2191,7 +2134,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2208,7 +2151,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -2225,7 +2168,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2242,7 +2185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2259,7 +2202,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2276,7 +2219,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2293,7 +2236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2310,7 +2253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -2327,7 +2270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -2344,7 +2287,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2361,7 +2304,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2378,7 +2321,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -2395,7 +2338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -2412,7 +2355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -2429,7 +2372,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -2446,7 +2389,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -2463,7 +2406,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2480,7 +2423,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -2497,7 +2440,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -2514,7 +2457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -2531,7 +2474,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -2548,7 +2491,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -2565,7 +2508,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -2582,7 +2525,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -2599,7 +2542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -2616,7 +2559,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -2633,7 +2576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>

--- a/Supplementary_files/Supplementary_Table_03.xlsx
+++ b/Supplementary_files/Supplementary_Table_03.xlsx
@@ -31,6 +31,9 @@
     <t>Gene</t>
   </si>
   <si>
+    <t>Conserved stretch 12</t>
+  </si>
+  <si>
     <t>Conserved stretch 13</t>
   </si>
   <si>
@@ -352,9 +355,6 @@
     <t>Conserved stretch 119</t>
   </si>
   <si>
-    <t>Conserved stretch 120</t>
-  </si>
-  <si>
     <t>ORF1ab</t>
   </si>
   <si>
@@ -370,7 +370,7 @@
     <t>ORF3a, S</t>
   </si>
   <si>
-    <t>ORF1ab, S</t>
+    <t>S, ORF1ab</t>
   </si>
   <si>
     <t>M</t>
